--- a/xlsx/温带大陆性湿润气候_intext.xlsx
+++ b/xlsx/温带大陆性湿润气候_intext.xlsx
@@ -29,7 +29,7 @@
     <t>东北亚</t>
   </si>
   <si>
-    <t>政策_政策_美國_温带大陆性湿润气候</t>
+    <t>政策_政策_美国_温带大陆性湿润气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%B8%A6%E5%AD%A3%E9%A3%8E%E6%B0%94%E5%80%99</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%96%AF%E7%A7%91</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
+    <t>乌克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E8%BE%85</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>白俄羅斯</t>
+    <t>白俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E6%96%AF%E5%85%8B</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E6%B2%99</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93</t>
   </si>
   <si>
-    <t>波士頓</t>
+    <t>波士顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E5%9F%8E</t>
@@ -2045,7 +2045,7 @@
         <v>90</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="s">
         <v>4</v>
@@ -2074,7 +2074,7 @@
         <v>92</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="s">
         <v>4</v>
@@ -2103,7 +2103,7 @@
         <v>94</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="s">
         <v>4</v>
@@ -2132,7 +2132,7 @@
         <v>96</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="s">
         <v>4</v>
@@ -2161,7 +2161,7 @@
         <v>98</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="s">
         <v>4</v>
@@ -2190,7 +2190,7 @@
         <v>100</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="s">
         <v>4</v>
@@ -2219,7 +2219,7 @@
         <v>102</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="s">
         <v>4</v>
@@ -2248,7 +2248,7 @@
         <v>104</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="s">
         <v>4</v>
@@ -2277,7 +2277,7 @@
         <v>106</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="s">
         <v>4</v>
@@ -2306,7 +2306,7 @@
         <v>108</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="s">
         <v>4</v>
@@ -2335,7 +2335,7 @@
         <v>110</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="s">
         <v>4</v>
